--- a/survey/summary.xlsx
+++ b/survey/summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATTER\SCP\问卷调查\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATTER\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E55AC8-965A-4368-A3AD-B1B0DB122464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B416E8-68EF-474F-9421-F615C4AD08A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4DF12CD6-4A4A-4075-9CB8-FBADBC45A5A0}"/>
+    <workbookView xWindow="0" yWindow="1104" windowWidth="30720" windowHeight="15576" activeTab="2" xr2:uid="{4DF12CD6-4A4A-4075-9CB8-FBADBC45A5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="unified-all" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="174">
   <si>
     <t>UA</t>
   </si>
@@ -226,9 +226,6 @@
     <t>10.If you must inspect every file in the list (you cannot skip a clean file because you do not know if it is clean or buggy until you finish your inspection)， which list do you prefer to inspect from left to right? (If you need to find more buggy files as soon as possible)</t>
   </si>
   <si>
-    <t>11.If you must inspect every file in the list (you cannot skip a clean file because you do not know if it is clean or buggy until you finish your inspection)， which list do you prefer to inspect from left to right? (If you need to find more buggy files as soon as possible)</t>
-  </si>
-  <si>
     <t>12.If you must inspect every file in the list (you cannot skip a clean file because you do not know if it is clean or buggy until you finish your inspection)， which list do you prefer to inspect from left to right? (If you need to find more buggy files as soon as possible)</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
   </si>
   <si>
     <t>18.In your opinion， which kind of comparison of defect prediction models is fair? (The comparison aims to decide which prediction model can find more buggy files as soon as possible)</t>
-  </si>
-  <si>
-    <t>19.In your opinion， which kind of comparison of defect prediction models is fair? (The comparison aims to decide which prediction model can find more buggy files as soon as possible)</t>
   </si>
   <si>
     <t>南非</t>
@@ -420,12 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>How long have you been coding?</t>
-  </si>
-  <si>
-    <t>What is your highest level of education in the field of software engineering?</t>
-  </si>
-  <si>
     <t>SNM alignment better than non-alignment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,15 +472,9 @@
     <t>1 person failed in Attention check, who gives different answers to same questions</t>
   </si>
   <si>
-    <t>current affiliation</t>
-  </si>
-  <si>
     <t>19 from industry 14 from academia</t>
   </si>
   <si>
-    <t>Participant Filter</t>
-  </si>
-  <si>
     <t>Comprehension check</t>
   </si>
   <si>
@@ -557,9 +539,6 @@
   </si>
   <si>
     <t>SSC</t>
-  </si>
-  <si>
-    <t>open question</t>
   </si>
   <si>
     <t>A for SSC B for SNM</t>
@@ -578,6 +557,38 @@
   </si>
   <si>
     <t>get 33 valid participants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open question: preference on SSC or SNM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Question content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demographic information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.If you must inspect every file in the list (you cannot skip a clean file because you do not know if it is clean or buggy until you finish your inspection)， which list do you prefer to inspect from left to right? (If you need to find more buggy files as soon as possible)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you must inspect every file in the list (you cannot skip a clean file because you do not know if it is clean or buggy until you finish your inspection)， which list do you prefer to inspect from left to right? (If you need to find more buggy files as soon as possible)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.In your opinion， which kind of comparison of defect prediction models is fair? (The comparison aims to decide which prediction model can find more buggy files as soon as possible)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In your opinion， which kind of comparison of defect prediction models is fair? (The comparison aims to decide which prediction model can find more buggy files as soon as possible)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same question with 16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +638,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -736,6 +747,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -745,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,9 +779,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -802,6 +819,24 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1120,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04134EE-E154-4298-B63C-A1567AD9385C}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1132,16 +1167,16 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1180,37 +1215,37 @@
         <v>61</v>
       </c>
       <c r="Q1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>64</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>65</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" t="s">
         <v>66</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" t="s">
         <v>84</v>
-      </c>
-      <c r="X1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -1281,13 +1316,13 @@
         <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA2" t="s">
         <v>58</v>
@@ -1361,13 +1396,13 @@
         <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -1438,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="X4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -1515,13 +1550,13 @@
         <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -1592,13 +1627,13 @@
         <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -1669,13 +1704,13 @@
         <v>25</v>
       </c>
       <c r="X7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -1746,13 +1781,13 @@
         <v>25</v>
       </c>
       <c r="X8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -1823,13 +1858,13 @@
         <v>25</v>
       </c>
       <c r="X9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -1858,7 +1893,7 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -1900,13 +1935,13 @@
         <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -1935,7 +1970,7 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -1977,13 +2012,13 @@
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -2012,7 +2047,7 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
@@ -2054,13 +2089,13 @@
         <v>32</v>
       </c>
       <c r="X12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -2074,7 +2109,7 @@
         <v>1138</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -2083,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -2131,13 +2166,13 @@
         <v>25</v>
       </c>
       <c r="X13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Y13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -2160,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -2208,16 +2243,16 @@
         <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AA14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -2231,7 +2266,7 @@
         <v>376</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -2240,7 +2275,7 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -2288,13 +2323,13 @@
         <v>25</v>
       </c>
       <c r="X15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -2308,7 +2343,7 @@
         <v>606</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -2317,13 +2352,13 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K16" t="s">
         <v>16</v>
@@ -2356,7 +2391,7 @@
         <v>31</v>
       </c>
       <c r="U16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V16" t="s">
         <v>32</v>
@@ -2365,13 +2400,13 @@
         <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -2388,19 +2423,19 @@
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s">
         <v>16</v>
@@ -2433,7 +2468,7 @@
         <v>31</v>
       </c>
       <c r="U17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V17" t="s">
         <v>32</v>
@@ -2442,13 +2477,13 @@
         <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -2462,7 +2497,7 @@
         <v>352</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -2471,13 +2506,13 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s">
         <v>16</v>
@@ -2519,16 +2554,16 @@
         <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -2542,7 +2577,7 @@
         <v>257</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
         <v>46</v>
@@ -2551,7 +2586,7 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -2599,13 +2634,13 @@
         <v>32</v>
       </c>
       <c r="X19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -2619,7 +2654,7 @@
         <v>644</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -2628,13 +2663,13 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
         <v>16</v>
@@ -2676,13 +2711,13 @@
         <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -2705,7 +2740,7 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -2753,13 +2788,13 @@
         <v>32</v>
       </c>
       <c r="X21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
@@ -2776,13 +2811,13 @@
         <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -2830,13 +2865,13 @@
         <v>32</v>
       </c>
       <c r="X22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -2850,7 +2885,7 @@
         <v>334</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -2859,13 +2894,13 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -2898,7 +2933,7 @@
         <v>31</v>
       </c>
       <c r="U23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V23" t="s">
         <v>32</v>
@@ -2907,13 +2942,13 @@
         <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
@@ -2927,13 +2962,13 @@
         <v>850</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -2972,7 +3007,7 @@
         <v>31</v>
       </c>
       <c r="U24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V24" t="s">
         <v>32</v>
@@ -2981,13 +3016,13 @@
         <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
@@ -3010,7 +3045,7 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -3049,7 +3084,7 @@
         <v>31</v>
       </c>
       <c r="U25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V25" t="s">
         <v>32</v>
@@ -3058,16 +3093,16 @@
         <v>32</v>
       </c>
       <c r="X25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AA25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -3081,7 +3116,7 @@
         <v>562</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -3090,7 +3125,7 @@
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -3138,13 +3173,13 @@
         <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
@@ -3167,16 +3202,16 @@
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
@@ -3209,7 +3244,7 @@
         <v>31</v>
       </c>
       <c r="U27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V27" t="s">
         <v>32</v>
@@ -3218,13 +3253,13 @@
         <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -3238,7 +3273,7 @@
         <v>541</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -3247,16 +3282,16 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
@@ -3298,16 +3333,16 @@
         <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -3321,7 +3356,7 @@
         <v>461</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -3330,7 +3365,7 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -3369,7 +3404,7 @@
         <v>31</v>
       </c>
       <c r="U29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V29" t="s">
         <v>25</v>
@@ -3378,13 +3413,13 @@
         <v>25</v>
       </c>
       <c r="X29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -3401,22 +3436,22 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s">
         <v>16</v>
@@ -3458,13 +3493,13 @@
         <v>32</v>
       </c>
       <c r="X30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
@@ -3478,25 +3513,25 @@
         <v>362</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
@@ -3538,16 +3573,16 @@
         <v>32</v>
       </c>
       <c r="X31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -3570,16 +3605,16 @@
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K32" t="s">
         <v>16</v>
@@ -3621,13 +3656,13 @@
         <v>32</v>
       </c>
       <c r="X32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -3641,7 +3676,7 @@
         <v>282</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -3650,7 +3685,7 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -3698,13 +3733,13 @@
         <v>32</v>
       </c>
       <c r="X33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
@@ -3718,25 +3753,25 @@
         <v>324</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s">
         <v>16</v>
@@ -3778,13 +3813,13 @@
         <v>32</v>
       </c>
       <c r="X34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3811,72 +3846,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>136</v>
+      <c r="B3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="B4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="17">
         <f>(23+25+19+25)/(33*4)</f>
         <v>0.69696969696969702</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="B5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="17">
         <f>(21+20+18)/(33*3)</f>
         <v>0.59595959595959591</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="17">
         <f>(21+19+21+18)/(33*4)</f>
         <v>0.59848484848484851</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="B7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="17">
         <f>26/33</f>
         <v>0.78787878787878785</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="B8" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="17">
         <f>(26+23)/(33*2)</f>
         <v>0.74242424242424243</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="17">
         <f>19/33</f>
         <v>0.5757575757575758</v>
       </c>
@@ -3896,321 +3931,370 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524D7B4C-00B6-4183-B8B6-8685162A424A}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="D10" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="D19" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="2" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>20</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D6:D7"/>
+  <mergeCells count="3">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>